--- a/My first true excel experience.xlsx
+++ b/My first true excel experience.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio\Documents\Excel_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95A67DF4-2A63-4855-9632-17DC4C9FD684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E00219-77D9-495C-B9B3-C9F64F48F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="1365" windowWidth="15375" windowHeight="7875" xr2:uid="{2970F828-0561-4C47-B5B0-A612C85310E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2970F828-0561-4C47-B5B0-A612C85310E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Controle Geral</t>
   </si>
@@ -62,7 +62,10 @@
     <t>Estoque</t>
   </si>
   <si>
-    <t>Preço</t>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Situaçao</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -121,7 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -437,111 +440,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B49AAA-D065-4112-8E3E-A8517BB871BB}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4000</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2">
-        <f>B4*C4</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5486.52</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5:E7" si="0">B5*C5</f>
-        <v>54865.200000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9994.14</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>119929.68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6548</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>78576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4">
-        <f>SUM(E4:E7)</f>
-        <v>293370.88</v>
-      </c>
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
